--- a/Projects/ES ASG/ES ASG API Playbook Project/VA API Developer Playbook Project Plan 2018.08.26a.xlsx
+++ b/Projects/ES ASG/ES ASG API Playbook Project/VA API Developer Playbook Project Plan 2018.08.26a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ES-ASG\Projects\ES ASG\ES ASG API Playbook Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03F6EA07-0F42-40D3-8954-C406DCDDBD47}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10FBD87-4BBC-4BE7-BF26-7BF03CE41AFF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20498" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -277,13 +277,7 @@
     <t>Tech Review</t>
   </si>
   <si>
-    <t>Initial Draft</t>
-  </si>
-  <si>
     <t>SME Review</t>
-  </si>
-  <si>
-    <t>Discovery</t>
   </si>
   <si>
     <t>Status as of 8/2</t>
@@ -394,6 +388,12 @@
   <si>
     <t>ASG_API Playbook_05.02 Naming Standards_Section_01.02_SME Review {John_McP}.docx
 ASG_API Playbook_13.00 API Documentation Blueprint_Section_01.01_Initial Draft.docx</t>
+  </si>
+  <si>
+    <t>Standards Review Resolution</t>
+  </si>
+  <si>
+    <t>Published</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1302,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1349,7 +1349,7 @@
         <v>77</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="71.25" x14ac:dyDescent="0.45">
@@ -1375,10 +1375,10 @@
         <v>47</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J2" s="24"/>
     </row>
@@ -1405,10 +1405,10 @@
         <v>64</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J3" s="18"/>
     </row>
@@ -1435,7 +1435,7 @@
         <v>69</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I4" s="35" t="s">
         <v>78</v>
@@ -1464,11 +1464,11 @@
       <c r="G5" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="30" t="s">
-        <v>83</v>
+      <c r="H5" s="35" t="s">
+        <v>84</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J5" s="22"/>
     </row>
@@ -1495,10 +1495,10 @@
         <v>69</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J6" s="18"/>
     </row>
@@ -1525,10 +1525,10 @@
         <v>68</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
@@ -1554,7 +1554,7 @@
         <v>47</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I8" s="30"/>
     </row>
@@ -1581,10 +1581,10 @@
         <v>69</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J9" s="24"/>
     </row>
@@ -1611,7 +1611,7 @@
         <v>73</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I10" s="30" t="s">
         <v>79</v>
@@ -1641,10 +1641,10 @@
         <v>73</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J11" s="22"/>
     </row>
@@ -1671,10 +1671,10 @@
         <v>64</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J12" s="18"/>
     </row>
@@ -1701,10 +1701,10 @@
         <v>73</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J13" s="24"/>
     </row>
@@ -1719,7 +1719,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E14" s="24" t="s">
         <v>43</v>
@@ -1734,10 +1734,10 @@
         <v>82</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="15" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
@@ -1766,7 +1766,7 @@
         <v>81</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J15" s="18"/>
     </row>
@@ -1793,7 +1793,7 @@
         <v>68</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I16" s="29"/>
       <c r="J16" s="17"/>
@@ -1821,7 +1821,7 @@
         <v>68</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I17" s="29"/>
       <c r="J17" s="18"/>
@@ -1849,7 +1849,7 @@
         <v>68</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I18" s="29"/>
       <c r="J18" s="17"/>
@@ -1877,7 +1877,7 @@
         <v>68</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I19" s="29"/>
       <c r="J19" s="18"/>
@@ -1905,7 +1905,7 @@
         <v>68</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I20" s="29"/>
       <c r="J20" s="17"/>
@@ -1933,7 +1933,7 @@
         <v>68</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I21" s="29"/>
       <c r="J21" s="18"/>
@@ -1961,7 +1961,7 @@
         <v>68</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I22" s="29"/>
       <c r="J22" s="17"/>
@@ -1988,11 +1988,11 @@
       <c r="G23" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="H23" s="28" t="s">
-        <v>81</v>
+      <c r="H23" s="35" t="s">
+        <v>84</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J23" s="17"/>
     </row>
@@ -2022,7 +2022,7 @@
         <v>81</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J24" s="18"/>
     </row>
@@ -2076,11 +2076,11 @@
       <c r="G26" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="35" t="s">
-        <v>84</v>
+      <c r="H26" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="I26" s="35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J26" s="33"/>
     </row>
@@ -2107,10 +2107,10 @@
         <v>64</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J27" s="18"/>
     </row>
@@ -2136,11 +2136,11 @@
       <c r="G28" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="35" t="s">
-        <v>84</v>
+      <c r="H28" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="I28" s="35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J28" s="33"/>
     </row>
@@ -2166,11 +2166,11 @@
       <c r="G29" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H29" s="30" t="s">
-        <v>83</v>
+      <c r="H29" s="35" t="s">
+        <v>84</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J29" s="23"/>
     </row>
